--- a/[Project]/ActionItemCheck_KK.xlsx
+++ b/[Project]/ActionItemCheck_KK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Project]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF9B389-EE9B-4D04-B49E-C02C38F5EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA760E-9A3F-4D1F-8081-A8F64B586AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>주차</t>
   </si>
@@ -1653,6 +1653,150 @@
       </rPr>
       <t>1) DEBA 방향 아이디어 논의
 2) 본인 논문공부/지식공부/프로젝트계획 등 협업 아이템 발표 및 협업 방향 논의</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[W2 진행]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[이슈 논의]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1) 신용카드고객이탈탐지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 피드백: 선행연구에서 분석할만한 포인트는 다 해본듯한 느낌이 들어서 추가로 뭘 할수 있을지 모르겠음
+- 엑셀파일 링크가 열리지 않는 이슈 수정 요망
+- 본인이 생각할때 어떠한 방향의 추가적인 접근이나 개선이 가능할지 의견 작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2) 이상거래탐지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 피드백: 1)번만큼 분석할만한 포인트를 다 해본 느낌은 아니어서 XAI만 반영되어도 논문 작성 가능할듯
+- 엑셀파일 링크가 열리지 않는 이슈 수정 요망
+- 본인이 생각할때 어떠한 방향의 추가적인 접근이나 개선이 가능할지 의견 작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3) 신용카드고객세그먼트분류 공모전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 피드백: 데이터가 풍성해 보여서 해봐도 좋을듯함 + 하지만 공모전에서 제공하는 데이터를 사용한 선행연구가 없을경우 논문작업까진 어려울수 있음
+- 방향추천: 공모전 데이터를 사용해서 1)과 2)의 방법론을 최대로 다 적용하여 도전해본 후, 2)데이터를 사용해서 논문을 작성하는건 어떨까 함
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[W3 계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1)</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2069,10 +2213,10 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -2158,7 +2302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="136">
+    <row r="4" spans="1:9" ht="409.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>

--- a/[Project]/ActionItemCheck_KK.xlsx
+++ b/[Project]/ActionItemCheck_KK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Project]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA760E-9A3F-4D1F-8081-A8F64B586AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F60B74-D747-46B3-B1CC-E4BF5F589FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>주차</t>
   </si>
@@ -1799,6 +1799,9 @@
 1)</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBA-Research/[Project]/AnomalyDetection</t>
   </si>
 </sst>
 </file>
@@ -2213,10 +2216,10 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -2267,7 +2270,9 @@
       <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -13330,6 +13335,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6BB47BAF-4593-49DE-88E4-C18DE87F61DE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0CAAAF1D-6D3C-4962-B5FF-9274C5B0EF58}"/>
     <hyperlink ref="D2" r:id="rId3" display="https://github.com/thekimk/DEBA-Research/tree/main/%5BProject%5D/MovieCommentAnalysis" xr:uid="{AD68DE80-EC89-4A20-B4CE-479EEE836443}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{A181D9A3-0B4D-4195-B91D-DED8D0C73056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
